--- a/differences_6_0.3.xlsx
+++ b/differences_6_0.3.xlsx
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.187</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09600000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.108</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08900000000000002</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03899999999999998</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09500000000000003</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1042,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08100000000000002</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.01899999999999996</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3971,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.04199999999999993</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4167,10 +4167,10 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.07699999999999996</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.03599999999999992</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.03900000000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>-0.03600000000000003</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-0.08500000000000002</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -4618,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>-0.03100000000000003</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -4909,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>-0.05099999999999999</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>-0.03900000000000003</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>0.03899999999999998</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-0.106</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
